--- a/data/trans_bre/CONS_CAT-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_CAT-Estudios-trans_bre.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -37,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,81 +54,11 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -133,11 +66,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,57 +468,57 @@
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Brecha de género absoluta</t>
         </is>
       </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n"/>
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
     </row>
     <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
@@ -592,327 +528,335 @@
       <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Hasta primaria</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,39</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,11</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,44</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>4,15%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>3,11%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>62,86%</t>
-        </is>
+      <c r="C4" s="4" t="n">
+        <v>-0.1106476847716892</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>-0.7115063437502529</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>2.491650248202233</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.01085696286467366</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.2046018913843753</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.6159983635771162</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-4,23; 4,16</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,2; 2,28</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,13; 5,5</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-32,45; 62,51</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-46,48; 92,47</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-3,93; 232,52</t>
-        </is>
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>-5.170210018252126</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>-2.999460807964675</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>-0.3015098682398898</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.379343354188753</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.6549986743660459</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.09508116881860047</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>4.525785234149073</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1.547715586617604</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>5.492711912933398</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.6485302358874305</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.7411847504640512</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>2.074303318307144</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Secundaria</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,37</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,39</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,7</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>19,61%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-14,03%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>33,54%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,87; 3,71</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,6; 0,69</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-0,21; 1,66</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-11,39; 64,38</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-46,56; 32,65</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-8,83; 98,33</t>
-        </is>
+      <c r="C7" s="4" t="n">
+        <v>0.8396607215681362</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>-0.2794607172088764</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>0.7835365520720055</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.1132339649835045</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.1027635159206625</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.377686787029007</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>-1.802227815801202</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>-1.674453988057825</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>-0.2424194783032673</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.1917758907757615</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.4857271331512819</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.09624400082049991</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>3.199961214761461</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>0.9279951132295831</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>1.76896846385852</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.5321574772944677</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.4961360014434992</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>1.118790542080318</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Estudios universitarios</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,82</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,14</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,67</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-19,87%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>4,38%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>59,27%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-6,14; 1,66</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,69; 1,98</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,45; 1,82</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-48,62; 29,65</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-43,04; 84,39</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-30,3; 257,03</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="C10" s="4" t="n">
+        <v>-2.086480157266281</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>0.6337615501200946</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>0.7994074015607628</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.2199077161225166</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.2128968063303522</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.6807642463959557</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>-6.400717494619196</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>-1.480281341641337</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>-0.3548015652532511</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.5237813295143089</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.3877455432030444</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.2868530171327268</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>1.673594575175843</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>2.676684377295257</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>2.073219889488695</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.252470326269737</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>1.356456824800962</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>3.022238472463711</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,59</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,14</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,98</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>7,52%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-4,76%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>47,85%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,11; 2,25</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,13; 0,78</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,25; 1,66</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-12,51; 33,05</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-32,35; 32,44</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>8,81; 94,76</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="C13" s="4" t="n">
+        <v>0.1172692410299644</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>-0.07839224338935039</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>1.08282701977155</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.01416651458604393</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.02703998751154756</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.52122795665272</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>-1.898435160833771</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>-1.043598635441499</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>0.2569035833874397</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.2053625389234457</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.3084505231071892</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.09555484000099589</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>2.021898478542086</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>0.8687907396033056</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>1.867108510561493</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.2853529175956607</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.3627196575642556</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>1.074123626493812</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
@@ -921,12 +865,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
